--- a/data/reports/latest_report.xlsx
+++ b/data/reports/latest_report.xlsx
@@ -17,22 +17,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -51,23 +43,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -433,67 +414,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>nganh_hang</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>nhan_hang</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>cum_noi_dung</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>so_luong_bai</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>cac_dau_bao</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Dầu ăn</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>['Khác']</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>['SAIGONTIMESONLINE', 'DOANHNHANSAIGON', 'CAFEF', 'SOHA']</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -504,297 +432,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>stt</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ngay_phat_hanh</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>dau_bao</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>cum_noi_dung</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>tom_tat_noi_dung</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>link_bai_bao</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>nganh_hang</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>nhan_hang</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>keywords_found</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>crawl_timestamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45843</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SAIGONTIMESONLINE</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Khác</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1. **Truy cập website:** Vào trực tiếp trang [Thời báo Saigon](). 2. **Sử dụng chức năng tìm kiếm:** Tìm kiếm các từ khóa liên quan như: "dầu ăn", "dầu oliu", "Ranee", "Tường An", vv. 3. **Kiểm tra thời gian đăng bài:** Xem ngày đăng của từng bài viết và lọc ra những bài viết trong khoảng thời gian từ ngày 5 tháng 6 năm 2025 đến hết ngày 5 tháng 7 năm 2025.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://thesaigontimes.vn</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Dầu ăn</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>45843.0722311949</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45843</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SOHA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Khác</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Hiện tại, tôi không thể tìm thấy bất kỳ bài viết nào trên trang liên quan đến các từ khóa đã chỉ định trong khoảng thời gian từ 2025-06-05 đến 2025-07-05. Việc tìm kiếm thông tin trên Google cũng không khả thi do giới hạn của hệ thống.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://soha.vn</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Dầu ăn</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>45843.07242373755</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45843</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>DOANHNHANSAIGON</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Khác</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Không tìm thấy bài viết liên quan đến các từ khóa mà bạn đã chỉ định trên trang web [Doanh Nhân Sài Gòn]() từ ngày 05/06/2025 đến ngày 05/07/2025.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://doanhnhansaigon.vn</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Dầu ăn</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>45843.07253975321</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45843</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CAFEF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Khác</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Đã thực hiện việc crawl trang web để tìm kiếm các bài viết liên quan đến từ khóa được chỉ định trong ngày 05/06/2025 đến 05/07/2025. Dưới đây là kết quả:</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://cafef.vn</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Dầu ăn</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>45843.07278473381</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45843</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CAFEF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Khác</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>```json { "articles": [ { "tiêu đề": "Bán xe điện ở nước xuất khẩu dầu, giá xăng chỉ 0,6 USD/lít: Nghịch lý tại quốc gia có 60% nguồn thu từ dầu khí nhưng lại muốn phát triển ô tô năng lượng sạch", "ngày phát hành": "05-07-2025", "tóm tắt nội dung": "Bài viết phân tích tình hình phát triển ô tô năng lượng sạch ở các quốc gia phụ thuộc vào dầu khí, chỉ ra nghịch lý trong việc tiêu thụ xe điện tại các nước này.", "link bài báo": " } ] } ```</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://cafef.vn/ban-xe-dien-o-nuoc-xuat-khau-dau-gia-xang-chi-06-usd-lit-nghich-ly-tai-quoc-gia-co-60-nguon-thu-tu-dau-khi-nhung-lai-muon-phat-trien-o-to-nang-luong-sach-188250704110042654.chn"</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Dầu ăn</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>45843.07278474542</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>